--- a/ocms/src/test/resources/TestData/TdmThresholdConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/TdmThresholdConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -12,17 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:J20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Team Name</t>
-  </si>
-  <si>
-    <t>India</t>
   </si>
   <si>
     <t>Query</t>
@@ -34,12 +31,6 @@
   On AGT_Agent.TeamID=AGT_Teams.TeamID</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>dep</t>
-  </si>
-  <si>
     <t>Aux Code From</t>
   </si>
   <si>
@@ -65,6 +56,12 @@
   </si>
   <si>
     <t>Modified</t>
+  </si>
+  <si>
+    <t>Sin</t>
+  </si>
+  <si>
+    <t>re</t>
   </si>
 </sst>
 </file>
@@ -410,7 +407,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,61 +424,50 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -504,12 +490,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>

--- a/ocms/src/test/resources/TestData/TdmThresholdConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/TdmThresholdConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
+  <oleSize ref="A1:K17"/>
 </workbook>
 </file>
 
@@ -406,7 +406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -479,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/TdmThresholdConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/TdmThresholdConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K17"/>
+  <oleSize ref="A1:J20"/>
 </workbook>
 </file>
 
@@ -46,9 +46,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>3 - Fulfillment</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>re</t>
+  </si>
+  <si>
+    <t>Cover TL</t>
   </si>
 </sst>
 </file>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,15 +433,15 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -450,20 +450,20 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/TdmThresholdConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/TdmThresholdConfigData.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
@@ -12,12 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Team Name</t>
   </si>
@@ -46,35 +50,53 @@
     <t>20</t>
   </si>
   <si>
-    <t>Singapore</t>
-  </si>
-  <si>
     <t>Modify Reason</t>
   </si>
   <si>
     <t>Modified</t>
   </si>
   <si>
-    <t>Sin</t>
-  </si>
-  <si>
     <t>re</t>
   </si>
   <si>
     <t>Cover TL</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>3 - Fulfillment</t>
+  </si>
+  <si>
+    <t>ProductQA</t>
+  </si>
+  <si>
+    <t>Sing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,12 +119,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,6 +135,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -160,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,7 +221,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,15 +459,15 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -450,24 +476,37 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -477,7 +516,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A7:A10"/>
@@ -498,9 +537,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/src/test/resources/TestData/TdmThresholdConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/TdmThresholdConfigData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -17,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N21"/>
 </workbook>
 </file>
 
@@ -432,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/TdmThresholdConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/TdmThresholdConfigData.xlsx
@@ -3,21 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8976" windowHeight="3588"/>
   </bookViews>
   <sheets>
-    <sheet name="Create" sheetId="1" r:id="rId1"/>
+    <sheet name="Create" sheetId="4" r:id="rId1"/>
     <sheet name="Queries" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Search" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N21"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Team Name</t>
   </si>
@@ -52,28 +56,61 @@
     <t>Modified</t>
   </si>
   <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>Cover TL</t>
-  </si>
-  <si>
-    <t>ang</t>
-  </si>
-  <si>
-    <t>Pro</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>3 - Fulfillment</t>
-  </si>
-  <si>
-    <t>ProductQA</t>
-  </si>
-  <si>
-    <t>Sing</t>
+    <t>Updated Aux Code Form</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>ore</t>
+  </si>
+  <si>
+    <t>eam</t>
+  </si>
+  <si>
+    <t>Cou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select TeamName as 'Team Name'
+ ,LAST_CHANGED_BY as 'Last Changed By'
+ ,LAST_CHANGED_ON as 'Last Changed On'
+  from AGT_Teams</t>
+  </si>
+  <si>
+    <t>team32</t>
+  </si>
+  <si>
+    <t>On Call - Hold</t>
+  </si>
+  <si>
+    <t>Un Hold</t>
+  </si>
+  <si>
+    <t>Delete Aux Code Form</t>
+  </si>
+  <si>
+    <t>NailedUp</t>
+  </si>
+  <si>
+    <t>2 - TM Feedback</t>
+  </si>
+  <si>
+    <t>Team Name2</t>
+  </si>
+  <si>
+    <t>Team Name1</t>
+  </si>
+  <si>
+    <t>Updated Threshold</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Magnet</t>
+  </si>
+  <si>
+    <t>team30</t>
   </si>
 </sst>
 </file>
@@ -121,7 +158,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,22 +463,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,13 +499,28 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -471,66 +528,91 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A7:A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -540,12 +622,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/TdmThresholdConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/TdmThresholdConfigData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8976" windowHeight="3588"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14385" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="4" r:id="rId1"/>
@@ -17,11 +12,12 @@
     <sheet name="Search" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:I20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Team Name</t>
   </si>
@@ -89,12 +85,6 @@
     <t>Delete Aux Code Form</t>
   </si>
   <si>
-    <t>NailedUp</t>
-  </si>
-  <si>
-    <t>2 - TM Feedback</t>
-  </si>
-  <si>
     <t>Team Name2</t>
   </si>
   <si>
@@ -107,10 +97,19 @@
     <t>40</t>
   </si>
   <si>
-    <t>Magnet</t>
-  </si>
-  <si>
     <t>team30</t>
+  </si>
+  <si>
+    <t>4 - Meeting/Training</t>
+  </si>
+  <si>
+    <t>5 - Computer Problem</t>
+  </si>
+  <si>
+    <t>3 - Fulfillment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delete  FROM [Product_OCM].[dbo].[TDM_ThreshholdConfiguration] where TeamId='2152'</t>
   </si>
 </sst>
 </file>
@@ -219,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,7 +253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,21 +465,21 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -506,21 +505,21 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -532,19 +531,19 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -589,23 +588,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -613,6 +612,11 @@
     <row r="3" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -628,14 +632,14 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
